--- a/exceltasks.xlsx
+++ b/exceltasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grish\Desktop\учеба\6 семестр\Корнеева Елена Игоревна\lab3.2.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grish\OneDrive\Рабочий стол\учба\корнеева\лаб 1\lab3.2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E6E4A7-F3CA-4D49-8FE6-6B302F1F9BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB1B353-42B8-43EF-8C80-8BF0F033D99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лаб 1" sheetId="1" r:id="rId1"/>
@@ -99,10 +99,21 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -316,29 +327,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1205,20 +1216,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
             <c:dispRSqr val="0"/>
@@ -1934,42 +1931,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:trendlineType val="exp"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.5959939218124115E-2"/>
-                  <c:y val="0.26564386482939634"/>
+                  <c:x val="2.9654095869595248E-2"/>
+                  <c:y val="0.30312445974193336"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2661,70 +2630,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.6724133167564587E-2"/>
-                  <c:y val="0.27069184711286087"/>
+                  <c:x val="0.11532062439563476"/>
+                  <c:y val="0.26802772407940023"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3099,6 +3012,2838 @@
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-5910-4E17-9898-9298062D6D18}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="681255615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="681256863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="681256863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="681255615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>USD/RUB - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Доллар США Российский рубль </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>(Полиномиальный</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>,3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Лаб 2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USD/RUB - Доллар США Российский рубль</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.18004006078187595"/>
+                  <c:y val="0.24220598551307204"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Лаб 2'!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44979</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44978</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44977</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44974</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44973</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44972</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Лаб 2'!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>75.934600000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.844999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.022499999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.444999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.632499999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.317499999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74.97</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74.602500000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.047499999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>74.855000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74.572500000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-95EF-46EE-B44C-43A6E725BA87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="681255615"/>
+        <c:axId val="681256863"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Лаб 2'!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>USD/RUB - Доллар США Российский рубль</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Лаб 2'!$A$2:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>45000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>44999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44998</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44995</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44994</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44992</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44991</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>44988</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>44987</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>44986</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44985</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>44984</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>44981</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>44979</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>44978</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>44977</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>44974</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>44973</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>44972</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Лаб 2'!$B$2:$B$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>75.934600000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>75.319999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>76.099999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>75.844999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>76.022499999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>75.444999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>75.632499999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>75.317499999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>75.150000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>74.97</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>74.602500000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>76.13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>75.047499999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>74.5</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>74.290000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>74.855000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>74.572500000000005</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-95EF-46EE-B44C-43A6E725BA87}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="681255615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="681256863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="681256863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="681255615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>USD/RUB - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Доллар США Российский рубль </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>(Полиномиальный</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>,4</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Лаб 2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USD/RUB - Доллар США Российский рубль</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.2154963392733803"/>
+                  <c:y val="0.24940215806357538"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Лаб 2'!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44979</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44978</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44977</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44974</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44973</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44972</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Лаб 2'!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>75.934600000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.844999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.022499999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.444999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.632499999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.317499999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74.97</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74.602500000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.047499999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>74.855000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74.572500000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-94E6-4AFF-A4BD-B62E1CA1481E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="681255615"/>
+        <c:axId val="681256863"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Лаб 2'!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>USD/RUB - Доллар США Российский рубль</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Лаб 2'!$A$2:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>45000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>44999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44998</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44995</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44994</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44992</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44991</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>44988</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>44987</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>44986</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44985</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>44984</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>44981</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>44979</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>44978</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>44977</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>44974</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>44973</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>44972</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Лаб 2'!$B$2:$B$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>75.934600000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>75.319999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>76.099999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>75.844999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>76.022499999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>75.444999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>75.632499999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>75.317499999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>75.150000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>74.97</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>74.602500000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>76.13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>75.047499999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>74.5</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>74.290000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>74.855000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>74.572500000000005</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-94E6-4AFF-A4BD-B62E1CA1481E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="681255615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="681256863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="681256863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="681255615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>USD/RUB - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Доллар США Российский рубль </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>(Полиномиальный</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>,5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Лаб 2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USD/RUB - Доллар США Российский рубль</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17484707832573559"/>
+                  <c:y val="0.22356923852986846"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Лаб 2'!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44979</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44978</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44977</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44974</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44973</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44972</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Лаб 2'!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>75.934600000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.844999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.022499999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.444999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.632499999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.317499999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74.97</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74.602500000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.047499999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>74.855000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74.572500000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0CD3-494E-813D-DF4FCB7A537A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="681255615"/>
+        <c:axId val="681256863"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Лаб 2'!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>USD/RUB - Доллар США Российский рубль</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Лаб 2'!$A$2:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>45000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>44999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44998</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44995</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44994</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44992</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44991</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>44988</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>44987</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>44986</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44985</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>44984</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>44981</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>44979</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>44978</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>44977</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>44974</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>44973</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>44972</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Лаб 2'!$B$2:$B$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>75.934600000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>75.319999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>76.099999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>75.844999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>76.022499999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>75.444999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>75.632499999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>75.317499999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>75.150000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>74.97</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>74.602500000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>76.13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>75.047499999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>74.5</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>74.290000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>74.855000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>74.572500000000005</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-0CD3-494E-813D-DF4FCB7A537A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="681255615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="681256863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="681256863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="681255615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>USD/RUB - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Доллар США Российский рубль </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>(Полиномиальный</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>,6</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Лаб 2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USD/RUB - Доллар США Российский рубль</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.21161900815029697"/>
+                  <c:y val="0.31703199262254378"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Лаб 2'!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44979</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44978</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44977</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44974</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44973</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44972</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Лаб 2'!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>75.934600000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.844999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.022499999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.444999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.632499999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.317499999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74.97</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74.602500000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.047499999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>74.855000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74.572500000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-613C-4B1B-82B0-712ECCC167A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="681255615"/>
+        <c:axId val="681256863"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Лаб 2'!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>USD/RUB - Доллар США Российский рубль</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Лаб 2'!$A$2:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>45000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>44999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44998</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44995</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44994</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44992</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44991</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>44988</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>44987</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>44986</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44985</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>44984</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>44981</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>44979</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>44978</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>44977</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>44974</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>44973</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>44972</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Лаб 2'!$B$2:$B$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>75.934600000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>75.319999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>76.099999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>75.844999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>76.022499999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>75.444999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>75.632499999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>75.317499999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>75.150000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>74.97</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>74.602500000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>76.13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>75.047499999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>74.5</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>74.290000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>74.855000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>74.572500000000005</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-613C-4B1B-82B0-712ECCC167A8}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3442,6 +6187,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4991,6 +7896,2070 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5658,6 +10627,158 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7436F89-32C2-4FAD-8941-01BE9E9C5639}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>184785</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BB7B1A2-8373-417D-9925-9A0BDACA792B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519BBCD3-E3BC-4835-AD86-DD965B64CD37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D8B5AD-2418-437D-950B-AFACAC5A207C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5926,38 +11047,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5970,10 +11091,10 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -5996,7 +11117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -6023,7 +11144,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -6050,7 +11171,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -6077,7 +11198,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -6100,7 +11221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -6120,7 +11241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -6139,15 +11260,15 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>18</v>
       </c>
@@ -6157,7 +11278,7 @@
       <c r="N12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
         <v>17</v>
       </c>
@@ -6167,7 +11288,7 @@
       <c r="N13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>28</v>
       </c>
@@ -6178,7 +11299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -6205,7 +11326,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -6232,7 +11353,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -6259,7 +11380,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -6286,7 +11407,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -6313,13 +11434,13 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -6336,7 +11457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -6356,7 +11477,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -6380,7 +11501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>28</v>
       </c>
@@ -6391,7 +11512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -6418,7 +11539,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -6445,7 +11566,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -6472,7 +11593,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -6499,7 +11620,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -6526,7 +11647,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>15</v>
       </c>
@@ -6554,12 +11675,12 @@
         <v>4499999.9999999991</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -6576,7 +11697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -6596,7 +11717,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -6632,180 +11753,180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B00EB5-4C5E-48D0-8C26-6CDC1E10376D}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>45000</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>75.934600000000003</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>44999</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>75.319999999999993</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>44998</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>44995</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>44994</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>75.844999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>44992</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>76.022499999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>44991</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>75.444999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>44988</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>75.632499999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>44987</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>75.317499999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>44986</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>75.150000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>44985</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>74.97</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
         <v>44984</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>74.602500000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>44981</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>76.13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
         <v>44979</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
         <v>44978</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>75.047499999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
         <v>44977</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>74.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
         <v>44974</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>74.290000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>44973</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>74.855000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
         <v>44972</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>74.572500000000005</v>
       </c>
     </row>
